--- a/resultados_diabetes.xlsx
+++ b/resultados_diabetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,22 +462,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No Diabetes</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-04-13 18:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B3" t="n">
         <v>12</v>
       </c>
-      <c r="B2" t="n">
-        <v>35</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>No Diabetes</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-04-13 16:10:15</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-04-13 18:24:43</t>
         </is>
       </c>
     </row>
